--- a/src/main/resources/templates/Hostel_Template.xlsx
+++ b/src/main/resources/templates/Hostel_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring Boot\Git Repos\skch-hostel-service\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD6F57B-EDE0-478E-9331-4A25E26F1122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93FBEEE-E77D-482E-A84A-12E232DA73CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{509FC42B-3694-4605-B27F-57C17D69DF05}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Full Name</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>fee</t>
-  </si>
-  <si>
     <t>Joining Date</t>
   </si>
   <si>
@@ -64,6 +61,12 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Fee</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B705EF3-B37F-41B9-ADEB-5CD99CC53A01}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -460,17 +463,17 @@
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="3" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,25 +484,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
